--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl28-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl28-Ccr10.xlsx
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ccr10</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09370299999999999</v>
+        <v>0.05794866666666667</v>
       </c>
       <c r="H2">
-        <v>0.281109</v>
+        <v>0.173846</v>
       </c>
       <c r="I2">
-        <v>0.4767646170910657</v>
+        <v>0.235800444619869</v>
       </c>
       <c r="J2">
-        <v>0.4767646170910658</v>
+        <v>0.235800444619869</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5010136666666667</v>
+        <v>1.238415</v>
       </c>
       <c r="N2">
-        <v>1.503041</v>
+        <v>3.715245</v>
       </c>
       <c r="O2">
-        <v>0.237333180484197</v>
+        <v>0.4359607654144799</v>
       </c>
       <c r="P2">
-        <v>0.237333180484197</v>
+        <v>0.4359607654144798</v>
       </c>
       <c r="Q2">
-        <v>0.04694648360766666</v>
+        <v>0.07176449803000001</v>
       </c>
       <c r="R2">
-        <v>0.422518352469</v>
+        <v>0.6458804822700001</v>
       </c>
       <c r="S2">
-        <v>0.113152062916553</v>
+        <v>0.1027997423215528</v>
       </c>
       <c r="T2">
-        <v>0.113152062916553</v>
+        <v>0.1027997423215528</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,72 +581,72 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.05794866666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.173846</v>
+      </c>
+      <c r="I3">
+        <v>0.235800444619869</v>
+      </c>
+      <c r="J3">
+        <v>0.235800444619869</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.09370299999999999</v>
-      </c>
-      <c r="H3">
-        <v>0.281109</v>
-      </c>
-      <c r="I3">
-        <v>0.4767646170910657</v>
-      </c>
-      <c r="J3">
-        <v>0.4767646170910658</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M3">
-        <v>1.238415</v>
+        <v>1.602242</v>
       </c>
       <c r="N3">
-        <v>3.715245</v>
+        <v>4.806725999999999</v>
       </c>
       <c r="O3">
-        <v>0.5866446172313401</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="P3">
-        <v>0.58664461723134</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="Q3">
-        <v>0.116043200745</v>
+        <v>0.09284778757733332</v>
       </c>
       <c r="R3">
-        <v>1.044388806705</v>
+        <v>0.8356300881959999</v>
       </c>
       <c r="S3">
-        <v>0.2796913963028347</v>
+        <v>0.1330007022983162</v>
       </c>
       <c r="T3">
-        <v>0.2796913963028346</v>
+        <v>0.1330007022983162</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,10 +664,10 @@
         <v>0.281109</v>
       </c>
       <c r="I4">
-        <v>0.4767646170910657</v>
+        <v>0.3812893433650861</v>
       </c>
       <c r="J4">
-        <v>0.4767646170910658</v>
+        <v>0.3812893433650861</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3715853333333333</v>
+        <v>1.238415</v>
       </c>
       <c r="N4">
-        <v>1.114756</v>
+        <v>3.715245</v>
       </c>
       <c r="O4">
-        <v>0.1760222022844629</v>
+        <v>0.4359607654144799</v>
       </c>
       <c r="P4">
-        <v>0.1760222022844629</v>
+        <v>0.4359607654144798</v>
       </c>
       <c r="Q4">
-        <v>0.03481866048933333</v>
+        <v>0.116043200745</v>
       </c>
       <c r="R4">
-        <v>0.313367944404</v>
+        <v>1.044388806705</v>
       </c>
       <c r="S4">
-        <v>0.08392115787167809</v>
+        <v>0.1662271939778274</v>
       </c>
       <c r="T4">
-        <v>0.0839211578716781</v>
+        <v>0.1662271939778273</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,75 +705,75 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1028363333333333</v>
+        <v>0.09370299999999999</v>
       </c>
       <c r="H5">
-        <v>0.308509</v>
+        <v>0.281109</v>
       </c>
       <c r="I5">
-        <v>0.5232353829089343</v>
+        <v>0.3812893433650861</v>
       </c>
       <c r="J5">
-        <v>0.5232353829089343</v>
+        <v>0.3812893433650861</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.5010136666666667</v>
+        <v>1.602242</v>
       </c>
       <c r="N5">
-        <v>1.503041</v>
+        <v>4.806725999999999</v>
       </c>
       <c r="O5">
-        <v>0.237333180484197</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="P5">
-        <v>0.237333180484197</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="Q5">
-        <v>0.0515224084298889</v>
+        <v>0.150134882126</v>
       </c>
       <c r="R5">
-        <v>0.4637016758690001</v>
+        <v>1.351213939134</v>
       </c>
       <c r="S5">
-        <v>0.1241811175676441</v>
+        <v>0.2150621493872587</v>
       </c>
       <c r="T5">
-        <v>0.124181117567644</v>
+        <v>0.2150621493872587</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1028363333333333</v>
+        <v>0.09410133333333333</v>
       </c>
       <c r="H6">
-        <v>0.308509</v>
+        <v>0.282304</v>
       </c>
       <c r="I6">
-        <v>0.5232353829089343</v>
+        <v>0.3829102120150449</v>
       </c>
       <c r="J6">
-        <v>0.5232353829089343</v>
+        <v>0.3829102120150449</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,36 +806,36 @@
         <v>3.715245</v>
       </c>
       <c r="O6">
-        <v>0.5866446172313401</v>
+        <v>0.4359607654144799</v>
       </c>
       <c r="P6">
-        <v>0.58664461723134</v>
+        <v>0.4359607654144798</v>
       </c>
       <c r="Q6">
-        <v>0.127354057745</v>
+        <v>0.11653650272</v>
       </c>
       <c r="R6">
-        <v>1.146186519705</v>
+        <v>1.04882852448</v>
       </c>
       <c r="S6">
-        <v>0.3069532209285055</v>
+        <v>0.1669338291150997</v>
       </c>
       <c r="T6">
-        <v>0.3069532209285054</v>
+        <v>0.1669338291150997</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -844,46 +844,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1028363333333333</v>
+        <v>0.09410133333333333</v>
       </c>
       <c r="H7">
-        <v>0.308509</v>
+        <v>0.282304</v>
       </c>
       <c r="I7">
-        <v>0.5232353829089343</v>
+        <v>0.3829102120150449</v>
       </c>
       <c r="J7">
-        <v>0.5232353829089343</v>
+        <v>0.3829102120150449</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3715853333333333</v>
+        <v>1.602242</v>
       </c>
       <c r="N7">
-        <v>1.114756</v>
+        <v>4.806725999999999</v>
       </c>
       <c r="O7">
-        <v>0.1760222022844629</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="P7">
-        <v>0.1760222022844629</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="Q7">
-        <v>0.03821247320044444</v>
+        <v>0.1507731085226666</v>
       </c>
       <c r="R7">
-        <v>0.343912258804</v>
+        <v>1.356957976704</v>
       </c>
       <c r="S7">
-        <v>0.09210104441278487</v>
+        <v>0.2159763828999451</v>
       </c>
       <c r="T7">
-        <v>0.09210104441278487</v>
+        <v>0.2159763828999452</v>
       </c>
     </row>
   </sheetData>
